--- a/experiment/linear/ex9.1.8/Experimentos_Generador/ex9.1.9(Linear)__Strong_Stationarygenerator_alpha_zero.xlsx
+++ b/experiment/linear/ex9.1.8/Experimentos_Generador/ex9.1.9(Linear)__Strong_Stationarygenerator_alpha_zero.xlsx
@@ -66,58 +66,58 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>2.5 - 2x_1 + y_1 - y_2</t>
-  </si>
-  <si>
-    <t>-2.204419543769237</t>
+    <t>11.3 - 2x_1 + y_1 - y_2</t>
+  </si>
+  <si>
+    <t>-8.8</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.4508014206716149</t>
-  </si>
-  <si>
-    <t>0.29376628470936417</t>
-  </si>
-  <si>
-    <t>0.14588267919982167</t>
-  </si>
-  <si>
-    <t>-2 + x_1 - 3x_2 + y_2</t>
-  </si>
-  <si>
-    <t>-0.9301416187597544</t>
+    <t>0.79</t>
+  </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>-3.55 + x_1 - 3x_2 + y_2</t>
+  </si>
+  <si>
+    <t>1.5499999999999998</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.22014013961262302</t>
-  </si>
-  <si>
-    <t>0.14150263261428964</t>
-  </si>
-  <si>
-    <t>0.6700839079058722</t>
-  </si>
-  <si>
-    <t>-2 + x_1 + x_2</t>
-  </si>
-  <si>
-    <t>1.7579091632801132</t>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>-9.36 + x_1 + x_2</t>
+  </si>
+  <si>
+    <t>6.75</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.2577161402299323</t>
-  </si>
-  <si>
-    <t>0.5848938015204409</t>
-  </si>
-  <si>
-    <t>0.6641124631738563</t>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>0.8999999999999999</t>
   </si>
   <si>
     <t>x_1</t>
@@ -132,40 +132,40 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>2.916744737742059</t>
-  </si>
-  <si>
-    <t>0.841164425538054</t>
-  </si>
-  <si>
-    <t>1.8056768518272297</t>
-  </si>
-  <si>
-    <t>0.6766069201123486</t>
+    <t>6.65</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>3.2</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>3.549198579328385</t>
-  </si>
-  <si>
-    <t>-0.7693387189410081</t>
+    <t>3.21</t>
+  </si>
+  <si>
+    <t>-0.29999999999999993</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>1.861136135283998</t>
-  </si>
-  <si>
-    <t>-1.160385903677572</t>
-  </si>
-  <si>
-    <t>-0.7937662847093642</t>
-  </si>
-  <si>
-    <t>0.15226365209507453</t>
+    <t>8.399999999999999</t>
+  </si>
+  <si>
+    <t>-0.39999999999999947</t>
+  </si>
+  <si>
+    <t>-7.8</t>
+  </si>
+  <si>
+    <t>5.1</t>
   </si>
   <si>
     <t>vec_alpha</t>

--- a/experiment/linear/ex9.1.8/Experimentos_Generador/ex9.1.9(Linear)__Strong_Stationarygenerator_alpha_zero.xlsx
+++ b/experiment/linear/ex9.1.8/Experimentos_Generador/ex9.1.9(Linear)__Strong_Stationarygenerator_alpha_zero.xlsx
@@ -66,58 +66,58 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>11.3 - 2x_1 + y_1 - y_2</t>
-  </si>
-  <si>
-    <t>-8.8</t>
+    <t>2.9999999999999996 - 2x_1 + y_1 - y_2</t>
+  </si>
+  <si>
+    <t>-0.49999999999999956</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.79</t>
-  </si>
-  <si>
-    <t>7.3</t>
-  </si>
-  <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>-3.55 + x_1 - 3x_2 + y_2</t>
-  </si>
-  <si>
-    <t>1.5499999999999998</t>
+    <t>0.96</t>
+  </si>
+  <si>
+    <t>5.8</t>
+  </si>
+  <si>
+    <t>5.6000000000000005</t>
+  </si>
+  <si>
+    <t>-0.9499999999999997 + x_1 - 3x_2 + y_2</t>
+  </si>
+  <si>
+    <t>-1.0500000000000003</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.09</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>3.7</t>
-  </si>
-  <si>
-    <t>-9.36 + x_1 + x_2</t>
-  </si>
-  <si>
-    <t>6.75</t>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>8.4</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>-4.79 + x_1 + x_2</t>
+  </si>
+  <si>
+    <t>1.7999999999999998</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.54</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>0.8999999999999999</t>
+    <t>0.28</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>4.4</t>
   </si>
   <si>
     <t>x_1</t>
@@ -132,40 +132,40 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>6.65</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>5.2</t>
-  </si>
-  <si>
-    <t>3.2</t>
+    <t>2.55</t>
+  </si>
+  <si>
+    <t>1.25</t>
+  </si>
+  <si>
+    <t>4.25</t>
+  </si>
+  <si>
+    <t>2.15</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>3.21</t>
-  </si>
-  <si>
-    <t>-0.29999999999999993</t>
+    <t>3.04</t>
+  </si>
+  <si>
+    <t>-0.9400000000000001</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>8.399999999999999</t>
-  </si>
-  <si>
-    <t>-0.39999999999999947</t>
-  </si>
-  <si>
-    <t>-7.8</t>
-  </si>
-  <si>
-    <t>5.1</t>
+    <t>-1.200000000000001</t>
+  </si>
+  <si>
+    <t>17.800000000000004</t>
+  </si>
+  <si>
+    <t>-6.3</t>
+  </si>
+  <si>
+    <t>-2.6000000000000005</t>
   </si>
   <si>
     <t>vec_alpha</t>

--- a/experiment/linear/ex9.1.8/Experimentos_Generador/ex9.1.9(Linear)__Strong_Stationarygenerator_alpha_zero.xlsx
+++ b/experiment/linear/ex9.1.8/Experimentos_Generador/ex9.1.9(Linear)__Strong_Stationarygenerator_alpha_zero.xlsx
@@ -66,10 +66,10 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>2.9999999999999996 - 2x_1 + y_1 - y_2</t>
-  </si>
-  <si>
-    <t>-0.49999999999999956</t>
+    <t>4.449999999999999 - 2x_1 + y_1 - y_2</t>
+  </si>
+  <si>
+    <t>-1.9499999999999995</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
@@ -78,46 +78,46 @@
     <t>0.96</t>
   </si>
   <si>
-    <t>5.8</t>
-  </si>
-  <si>
-    <t>5.6000000000000005</t>
-  </si>
-  <si>
-    <t>-0.9499999999999997 + x_1 - 3x_2 + y_2</t>
-  </si>
-  <si>
-    <t>-1.0500000000000003</t>
+    <t>3.3000000000000003</t>
+  </si>
+  <si>
+    <t>3.9000000000000004</t>
+  </si>
+  <si>
+    <t>-1.2499999999999993 + x_1 - 3x_2 + y_2</t>
+  </si>
+  <si>
+    <t>-0.7500000000000007</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.9</t>
-  </si>
-  <si>
-    <t>8.4</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>-4.79 + x_1 + x_2</t>
-  </si>
-  <si>
-    <t>1.7999999999999998</t>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>-6.46 + x_1 + x_2</t>
+  </si>
+  <si>
+    <t>4.1</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.28</t>
-  </si>
-  <si>
-    <t>6.4</t>
-  </si>
-  <si>
-    <t>4.4</t>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>0.4</t>
   </si>
   <si>
     <t>x_1</t>
@@ -132,16 +132,16 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>2.55</t>
-  </si>
-  <si>
-    <t>1.25</t>
-  </si>
-  <si>
-    <t>4.25</t>
-  </si>
-  <si>
-    <t>2.15</t>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>6.1000000000000005</t>
+  </si>
+  <si>
+    <t>1.55</t>
   </si>
   <si>
     <t>vec_bf</t>
@@ -150,22 +150,22 @@
     <t>3.04</t>
   </si>
   <si>
-    <t>-0.9400000000000001</t>
+    <t>-0.74</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-1.200000000000001</t>
-  </si>
-  <si>
-    <t>17.800000000000004</t>
-  </si>
-  <si>
-    <t>-6.3</t>
-  </si>
-  <si>
-    <t>-2.6000000000000005</t>
+    <t>-4.699999999999999</t>
+  </si>
+  <si>
+    <t>13.7</t>
+  </si>
+  <si>
+    <t>-3.8000000000000003</t>
+  </si>
+  <si>
+    <t>-3.6999999999999997</t>
   </si>
   <si>
     <t>vec_alpha</t>
